--- a/data/pca/factorExposure/factorExposure_2016-04-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-04-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01156003193844608</v>
+        <v>-0.01568232917256634</v>
       </c>
       <c r="C2">
-        <v>0.05230395831969386</v>
+        <v>0.03804997516312621</v>
       </c>
       <c r="D2">
-        <v>0.04277210528952321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0648968009738564</v>
+      </c>
+      <c r="E2">
+        <v>-0.09439444639698005</v>
+      </c>
+      <c r="F2">
+        <v>-0.08328284629937174</v>
+      </c>
+      <c r="G2">
+        <v>0.0263405552438485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04066532736208853</v>
+        <v>-0.02500854860854283</v>
       </c>
       <c r="C3">
-        <v>0.1217123897063727</v>
+        <v>0.06719347136392431</v>
       </c>
       <c r="D3">
-        <v>0.08524178180056637</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.073507065376828</v>
+      </c>
+      <c r="E3">
+        <v>-0.06846399300006523</v>
+      </c>
+      <c r="F3">
+        <v>0.02039046714157919</v>
+      </c>
+      <c r="G3">
+        <v>0.04694147043204287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06347062670777331</v>
+        <v>-0.06059738696784104</v>
       </c>
       <c r="C4">
-        <v>0.06290872091587273</v>
+        <v>0.06365067755070082</v>
       </c>
       <c r="D4">
-        <v>0.02970828493156307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05764367186946273</v>
+      </c>
+      <c r="E4">
+        <v>-0.08871958658758564</v>
+      </c>
+      <c r="F4">
+        <v>-0.05011673250294767</v>
+      </c>
+      <c r="G4">
+        <v>0.0861974111057677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04097962362467827</v>
+        <v>-0.03694632773003281</v>
       </c>
       <c r="C6">
-        <v>0.03460645225557776</v>
+        <v>0.02629737876844356</v>
       </c>
       <c r="D6">
-        <v>0.03076079516534239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06286502801331725</v>
+      </c>
+      <c r="E6">
+        <v>-0.08916027891771146</v>
+      </c>
+      <c r="F6">
+        <v>-0.02988738894555894</v>
+      </c>
+      <c r="G6">
+        <v>0.06502246340815362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02702522352243484</v>
+        <v>-0.02118636460465555</v>
       </c>
       <c r="C7">
-        <v>0.03962120210995704</v>
+        <v>0.03547482438775281</v>
       </c>
       <c r="D7">
-        <v>-0.00541349645263824</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03977984624625397</v>
+      </c>
+      <c r="E7">
+        <v>-0.06830313551671315</v>
+      </c>
+      <c r="F7">
+        <v>-0.07183346635418277</v>
+      </c>
+      <c r="G7">
+        <v>0.09790971908068044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007504919390136885</v>
+        <v>-0.005687073307960804</v>
       </c>
       <c r="C8">
-        <v>0.04127692194945883</v>
+        <v>0.03427111351030229</v>
       </c>
       <c r="D8">
-        <v>0.02679515308808007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0361712919107067</v>
+      </c>
+      <c r="E8">
+        <v>-0.06234983273628166</v>
+      </c>
+      <c r="F8">
+        <v>-0.0209906714449761</v>
+      </c>
+      <c r="G8">
+        <v>0.03727778900999067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03797473713091667</v>
+        <v>-0.04007296573631335</v>
       </c>
       <c r="C9">
-        <v>0.04768302469402263</v>
+        <v>0.0507351541585483</v>
       </c>
       <c r="D9">
-        <v>0.01467276850500138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04210681671420884</v>
+      </c>
+      <c r="E9">
+        <v>-0.0709597707839031</v>
+      </c>
+      <c r="F9">
+        <v>-0.06276255018522808</v>
+      </c>
+      <c r="G9">
+        <v>0.07763835850278743</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07285173762975237</v>
+        <v>-0.09862956849035788</v>
       </c>
       <c r="C10">
-        <v>-0.1917858030260373</v>
+        <v>-0.2012266890958994</v>
       </c>
       <c r="D10">
-        <v>-0.003737600266256235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0110452890137157</v>
+      </c>
+      <c r="E10">
+        <v>-0.03208092643965216</v>
+      </c>
+      <c r="F10">
+        <v>-0.0206840715144296</v>
+      </c>
+      <c r="G10">
+        <v>0.03447113315627838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04284048515507573</v>
+        <v>-0.03778908936208955</v>
       </c>
       <c r="C11">
-        <v>0.05075314426749802</v>
+        <v>0.04762499818766659</v>
       </c>
       <c r="D11">
-        <v>0.01399768060894789</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03227288943316229</v>
+      </c>
+      <c r="E11">
+        <v>-0.02860308960944098</v>
+      </c>
+      <c r="F11">
+        <v>-0.04317470984239085</v>
+      </c>
+      <c r="G11">
+        <v>0.06649824843014214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04558638087422682</v>
+        <v>-0.03981058634915523</v>
       </c>
       <c r="C12">
-        <v>0.04575611819941936</v>
+        <v>0.04570519147920651</v>
       </c>
       <c r="D12">
-        <v>0.003325265821193516</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02768511225175239</v>
+      </c>
+      <c r="E12">
+        <v>-0.03555387088217519</v>
+      </c>
+      <c r="F12">
+        <v>-0.04478772510722526</v>
+      </c>
+      <c r="G12">
+        <v>0.06434650431302175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01623623082880414</v>
+        <v>-0.01391965488063303</v>
       </c>
       <c r="C13">
-        <v>0.05401406833150184</v>
+        <v>0.04236355100509023</v>
       </c>
       <c r="D13">
-        <v>0.01077582517423637</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04888517908366292</v>
+      </c>
+      <c r="E13">
+        <v>-0.1011395058998529</v>
+      </c>
+      <c r="F13">
+        <v>-0.06438520189279044</v>
+      </c>
+      <c r="G13">
+        <v>0.09247619904535348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01048077793487363</v>
+        <v>-0.006765962560098191</v>
       </c>
       <c r="C14">
-        <v>0.0368756148704281</v>
+        <v>0.030866583338527</v>
       </c>
       <c r="D14">
-        <v>-0.006852480904250282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02679653973237461</v>
+      </c>
+      <c r="E14">
+        <v>-0.05146555025384288</v>
+      </c>
+      <c r="F14">
+        <v>-0.08234662101095855</v>
+      </c>
+      <c r="G14">
+        <v>0.08032277284660989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-1.032374586225996e-05</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005297912930980125</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.008620402600829753</v>
+      </c>
+      <c r="E15">
+        <v>-0.004746786298367013</v>
+      </c>
+      <c r="F15">
+        <v>-0.006896529087607757</v>
+      </c>
+      <c r="G15">
+        <v>0.00723890573824964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04068581799948387</v>
+        <v>-0.03581586820305884</v>
       </c>
       <c r="C16">
-        <v>0.04807479969419515</v>
+        <v>0.04459389239990852</v>
       </c>
       <c r="D16">
-        <v>0.005794330836199204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02688030277165933</v>
+      </c>
+      <c r="E16">
+        <v>-0.04188739850357393</v>
+      </c>
+      <c r="F16">
+        <v>-0.05416856805531418</v>
+      </c>
+      <c r="G16">
+        <v>0.05458546923760135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02787673383106787</v>
+        <v>-0.01881265377791946</v>
       </c>
       <c r="C19">
-        <v>0.06025841770431034</v>
+        <v>0.04457959713434451</v>
       </c>
       <c r="D19">
-        <v>0.09132640792246853</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.0932874797558578</v>
+      </c>
+      <c r="E19">
+        <v>-0.1122670931107393</v>
+      </c>
+      <c r="F19">
+        <v>-0.06107562001939201</v>
+      </c>
+      <c r="G19">
+        <v>0.03944316532295696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01920910648277051</v>
+        <v>-0.0153877414035245</v>
       </c>
       <c r="C20">
-        <v>0.04896813477930822</v>
+        <v>0.03956445245206874</v>
       </c>
       <c r="D20">
-        <v>0.01047892814011814</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03606288473709587</v>
+      </c>
+      <c r="E20">
+        <v>-0.07987130564202466</v>
+      </c>
+      <c r="F20">
+        <v>-0.05806430173509847</v>
+      </c>
+      <c r="G20">
+        <v>0.06422500253359721</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0129692830209973</v>
+        <v>-0.01107935455601407</v>
       </c>
       <c r="C21">
-        <v>0.05433523475480006</v>
+        <v>0.04438808391456384</v>
       </c>
       <c r="D21">
-        <v>0.03076065032874499</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.05934475832241657</v>
+      </c>
+      <c r="E21">
+        <v>-0.1281586621356584</v>
+      </c>
+      <c r="F21">
+        <v>-0.09325105071516686</v>
+      </c>
+      <c r="G21">
+        <v>0.09191720494671021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001795948828955745</v>
+        <v>-0.003941001662344145</v>
       </c>
       <c r="C22">
-        <v>0.001355816152375439</v>
+        <v>0.02871916764319819</v>
       </c>
       <c r="D22">
-        <v>0.006347768198328026</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.05037242253115232</v>
+      </c>
+      <c r="E22">
+        <v>-0.0555574818406309</v>
+      </c>
+      <c r="F22">
+        <v>0.01837966933235355</v>
+      </c>
+      <c r="G22">
+        <v>0.06373893356531868</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001801872300944741</v>
+        <v>-0.004026007813124276</v>
       </c>
       <c r="C23">
-        <v>0.001375138022387927</v>
+        <v>0.02886176234906693</v>
       </c>
       <c r="D23">
-        <v>0.006336548180813255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04992290314671129</v>
+      </c>
+      <c r="E23">
+        <v>-0.05582136617070746</v>
+      </c>
+      <c r="F23">
+        <v>0.01868688580480839</v>
+      </c>
+      <c r="G23">
+        <v>0.06372815608582752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0373564957370651</v>
+        <v>-0.03627430534288092</v>
       </c>
       <c r="C24">
-        <v>0.04997987640838149</v>
+        <v>0.052419476496409</v>
       </c>
       <c r="D24">
-        <v>0.007904004097418775</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02607831547338741</v>
+      </c>
+      <c r="E24">
+        <v>-0.04292691268803157</v>
+      </c>
+      <c r="F24">
+        <v>-0.05761543127919937</v>
+      </c>
+      <c r="G24">
+        <v>0.06638039591962425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0491933195840349</v>
+        <v>-0.0441364547865432</v>
       </c>
       <c r="C25">
-        <v>0.0604459376170917</v>
+        <v>0.0560523912209708</v>
       </c>
       <c r="D25">
-        <v>-0.003071930234957486</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02407553691829836</v>
+      </c>
+      <c r="E25">
+        <v>-0.03612563463870871</v>
+      </c>
+      <c r="F25">
+        <v>-0.04778883833471276</v>
+      </c>
+      <c r="G25">
+        <v>0.07707254542035089</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01805098517465139</v>
+        <v>-0.01678239063089008</v>
       </c>
       <c r="C26">
-        <v>0.01905588558857561</v>
+        <v>0.01715985905916644</v>
       </c>
       <c r="D26">
-        <v>0.002439582677108233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02692472596941538</v>
+      </c>
+      <c r="E26">
+        <v>-0.05214152418947194</v>
+      </c>
+      <c r="F26">
+        <v>-0.06157323954084375</v>
+      </c>
+      <c r="G26">
+        <v>0.0465180086838968</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08771756403286077</v>
+        <v>-0.1347810136797845</v>
       </c>
       <c r="C28">
-        <v>-0.2514108233713021</v>
+        <v>-0.2559827781735413</v>
       </c>
       <c r="D28">
-        <v>-0.002106169170483395</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02500035129393093</v>
+      </c>
+      <c r="E28">
+        <v>-0.05846754225909277</v>
+      </c>
+      <c r="F28">
+        <v>-0.03827438469428011</v>
+      </c>
+      <c r="G28">
+        <v>0.05121721526240426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008157527807201278</v>
+        <v>-0.006793668911050679</v>
       </c>
       <c r="C29">
-        <v>0.03271392016263275</v>
+        <v>0.02885369904199905</v>
       </c>
       <c r="D29">
-        <v>-0.01322781416342086</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01855967178191004</v>
+      </c>
+      <c r="E29">
+        <v>-0.05136017785638394</v>
+      </c>
+      <c r="F29">
+        <v>-0.07386738957337935</v>
+      </c>
+      <c r="G29">
+        <v>0.08396614228101289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04739827185950864</v>
+        <v>-0.04399221688549764</v>
       </c>
       <c r="C30">
-        <v>0.0517517811580766</v>
+        <v>0.05674178132483321</v>
       </c>
       <c r="D30">
-        <v>0.08018938489411867</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1045966587770831</v>
+      </c>
+      <c r="E30">
+        <v>-0.07839852154064532</v>
+      </c>
+      <c r="F30">
+        <v>-0.06943974588785226</v>
+      </c>
+      <c r="G30">
+        <v>0.06358579723722904</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06065569597719036</v>
+        <v>-0.05879979275967515</v>
       </c>
       <c r="C31">
-        <v>0.04580435364414721</v>
+        <v>0.0614166352934199</v>
       </c>
       <c r="D31">
-        <v>-0.04336748811403868</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01730616530312405</v>
+      </c>
+      <c r="E31">
+        <v>-0.07188716780774289</v>
+      </c>
+      <c r="F31">
+        <v>-0.02860734655280617</v>
+      </c>
+      <c r="G31">
+        <v>0.08137177584969342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001344760332798611</v>
+        <v>-0.005969012537578761</v>
       </c>
       <c r="C32">
-        <v>0.04188665502158451</v>
+        <v>0.03544249725130917</v>
       </c>
       <c r="D32">
-        <v>0.05835426443929658</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05834625449574374</v>
+      </c>
+      <c r="E32">
+        <v>-0.06177805039902867</v>
+      </c>
+      <c r="F32">
+        <v>-0.068007765649826</v>
+      </c>
+      <c r="G32">
+        <v>0.06566937653150197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03490207222103624</v>
+        <v>-0.02863463231401884</v>
       </c>
       <c r="C33">
-        <v>0.05586375093129605</v>
+        <v>0.05148663397535997</v>
       </c>
       <c r="D33">
-        <v>0.04011581929887201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07315488857294387</v>
+      </c>
+      <c r="E33">
+        <v>-0.09024508706519109</v>
+      </c>
+      <c r="F33">
+        <v>-0.07183231911009154</v>
+      </c>
+      <c r="G33">
+        <v>0.09557604882157314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04615369363126637</v>
+        <v>-0.04150694770984784</v>
       </c>
       <c r="C34">
-        <v>0.06469178329109133</v>
+        <v>0.06293555343899163</v>
       </c>
       <c r="D34">
-        <v>0.0198257118899674</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03860835593906819</v>
+      </c>
+      <c r="E34">
+        <v>-0.01794836217207898</v>
+      </c>
+      <c r="F34">
+        <v>-0.05693976722201358</v>
+      </c>
+      <c r="G34">
+        <v>0.0681499671621941</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01787868174942599</v>
+        <v>-0.01504011868359132</v>
       </c>
       <c r="C36">
-        <v>0.01683482813846768</v>
+        <v>0.01367884930134192</v>
       </c>
       <c r="D36">
-        <v>-0.002646880473027348</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02573468060014962</v>
+      </c>
+      <c r="E36">
+        <v>-0.06169030214414405</v>
+      </c>
+      <c r="F36">
+        <v>-0.05330463878126782</v>
+      </c>
+      <c r="G36">
+        <v>0.06376852646747214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03099711719699122</v>
+        <v>-0.02418886873783109</v>
       </c>
       <c r="C38">
-        <v>0.03207099930132726</v>
+        <v>0.02429768804619311</v>
       </c>
       <c r="D38">
-        <v>-0.01257295934678455</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02296507987210227</v>
+      </c>
+      <c r="E38">
+        <v>-0.0504226392664433</v>
+      </c>
+      <c r="F38">
+        <v>-0.04214994647590159</v>
+      </c>
+      <c r="G38">
+        <v>0.04433939363644646</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04827011985496547</v>
+        <v>-0.0421147720280809</v>
       </c>
       <c r="C39">
-        <v>0.06178280184469086</v>
+        <v>0.06253959739984696</v>
       </c>
       <c r="D39">
-        <v>0.02096486771731589</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.0524871832494714</v>
+      </c>
+      <c r="E39">
+        <v>-0.04928958957976136</v>
+      </c>
+      <c r="F39">
+        <v>-0.07601978590718414</v>
+      </c>
+      <c r="G39">
+        <v>0.05975933501672137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01125742339885379</v>
+        <v>-0.01397821636890819</v>
       </c>
       <c r="C40">
-        <v>0.05408536402285553</v>
+        <v>0.03902455736034001</v>
       </c>
       <c r="D40">
-        <v>0.01821894252292792</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03329218730218023</v>
+      </c>
+      <c r="E40">
+        <v>-0.09137021130722039</v>
+      </c>
+      <c r="F40">
+        <v>-0.04061099988191712</v>
+      </c>
+      <c r="G40">
+        <v>0.1000157598667155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02326367746787092</v>
+        <v>-0.0196053911600256</v>
       </c>
       <c r="C41">
-        <v>0.01341626980190777</v>
+        <v>0.009601348536309442</v>
       </c>
       <c r="D41">
-        <v>0.00196910008781955</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01731000968833067</v>
+      </c>
+      <c r="E41">
+        <v>-0.06324760375081841</v>
+      </c>
+      <c r="F41">
+        <v>-0.04713774869466092</v>
+      </c>
+      <c r="G41">
+        <v>0.05171764514547952</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04410352677312935</v>
+        <v>-0.03132874595542663</v>
       </c>
       <c r="C43">
-        <v>0.03408155134353261</v>
+        <v>0.02508950977305355</v>
       </c>
       <c r="D43">
-        <v>0.02176633952943689</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04514915727788182</v>
+      </c>
+      <c r="E43">
+        <v>-0.0781835216164822</v>
+      </c>
+      <c r="F43">
+        <v>-0.04244304068553619</v>
+      </c>
+      <c r="G43">
+        <v>0.07861839901626964</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01581137782251734</v>
+        <v>-0.01747415510957641</v>
       </c>
       <c r="C44">
-        <v>0.07042236579543498</v>
+        <v>0.04790446803374321</v>
       </c>
       <c r="D44">
-        <v>0.009216709991733338</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03496120907979987</v>
+      </c>
+      <c r="E44">
+        <v>-0.09014120606851461</v>
+      </c>
+      <c r="F44">
+        <v>-0.06571703055981473</v>
+      </c>
+      <c r="G44">
+        <v>0.04811538110426694</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01213360259836452</v>
+        <v>-0.01234706936042719</v>
       </c>
       <c r="C46">
-        <v>0.02648462126464492</v>
+        <v>0.02884154306063246</v>
       </c>
       <c r="D46">
-        <v>-0.01409997723954595</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01453846268833964</v>
+      </c>
+      <c r="E46">
+        <v>-0.06127382518735797</v>
+      </c>
+      <c r="F46">
+        <v>-0.08267932582189114</v>
+      </c>
+      <c r="G46">
+        <v>0.08347449880522791</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09022306791266436</v>
+        <v>-0.09261625098507427</v>
       </c>
       <c r="C47">
-        <v>0.06756138493460005</v>
+        <v>0.07911701664659475</v>
       </c>
       <c r="D47">
-        <v>-0.04244451582663399</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02273143239547409</v>
+      </c>
+      <c r="E47">
+        <v>-0.06700373962311937</v>
+      </c>
+      <c r="F47">
+        <v>-0.02909741639654839</v>
+      </c>
+      <c r="G47">
+        <v>0.07615477285510108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01984539390913443</v>
+        <v>-0.01809033832491799</v>
       </c>
       <c r="C48">
-        <v>0.01391607527459666</v>
+        <v>0.01565203461907655</v>
       </c>
       <c r="D48">
-        <v>-0.01640859663244075</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01252095793479199</v>
+      </c>
+      <c r="E48">
+        <v>-0.0730278905595321</v>
+      </c>
+      <c r="F48">
+        <v>-0.06786972454558322</v>
+      </c>
+      <c r="G48">
+        <v>0.06905499789579944</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.0847336092198398</v>
+        <v>-0.07234292619644841</v>
       </c>
       <c r="C50">
-        <v>0.08154369934670852</v>
+        <v>0.07478659333830601</v>
       </c>
       <c r="D50">
-        <v>-0.04322096439985539</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.008077362864544857</v>
+      </c>
+      <c r="E50">
+        <v>-0.07806637858154028</v>
+      </c>
+      <c r="F50">
+        <v>-0.002043112155786756</v>
+      </c>
+      <c r="G50">
+        <v>0.09199832814769857</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01809004222554098</v>
+        <v>-0.01146201620507658</v>
       </c>
       <c r="C51">
-        <v>0.05025759204978936</v>
+        <v>0.03233589152928101</v>
       </c>
       <c r="D51">
-        <v>0.04158631074418948</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05791151868436615</v>
+      </c>
+      <c r="E51">
+        <v>-0.0517336499481888</v>
+      </c>
+      <c r="F51">
+        <v>-0.07245243551417421</v>
+      </c>
+      <c r="G51">
+        <v>0.0569143385729006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08458700405707829</v>
+        <v>-0.09783185659712862</v>
       </c>
       <c r="C53">
-        <v>0.07699197293852073</v>
+        <v>0.08508509200243311</v>
       </c>
       <c r="D53">
-        <v>-0.06517358287141645</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.06106659762748141</v>
+      </c>
+      <c r="E53">
+        <v>-0.06714907769177912</v>
+      </c>
+      <c r="F53">
+        <v>-0.0290062376238929</v>
+      </c>
+      <c r="G53">
+        <v>0.06566899366112106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03773793060375</v>
+        <v>-0.03053019821276736</v>
       </c>
       <c r="C54">
-        <v>0.03390229554684855</v>
+        <v>0.03123790231577642</v>
       </c>
       <c r="D54">
-        <v>-0.004562585478711091</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02577358223564599</v>
+      </c>
+      <c r="E54">
+        <v>-0.05751562157431882</v>
+      </c>
+      <c r="F54">
+        <v>-0.07362116550507795</v>
+      </c>
+      <c r="G54">
+        <v>0.08523327673430242</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07988845357598184</v>
+        <v>-0.09011120970093123</v>
       </c>
       <c r="C55">
-        <v>0.05304275955681687</v>
+        <v>0.0671387892199878</v>
       </c>
       <c r="D55">
-        <v>-0.07068787655129863</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06148097637570402</v>
+      </c>
+      <c r="E55">
+        <v>-0.04475459660335517</v>
+      </c>
+      <c r="F55">
+        <v>-0.006993650235507571</v>
+      </c>
+      <c r="G55">
+        <v>0.05217946388719004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1541838404133071</v>
+        <v>-0.1561250373107619</v>
       </c>
       <c r="C56">
-        <v>0.08238391558725226</v>
+        <v>0.100289993933878</v>
       </c>
       <c r="D56">
-        <v>-0.06033342598763469</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05496065552443623</v>
+      </c>
+      <c r="E56">
+        <v>-0.03888554006213292</v>
+      </c>
+      <c r="F56">
+        <v>0.01392970349883872</v>
+      </c>
+      <c r="G56">
+        <v>0.02054242972005721</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05066621634326902</v>
+        <v>-0.03077558657384217</v>
       </c>
       <c r="C58">
-        <v>0.01633840493257237</v>
+        <v>0.02033268365065987</v>
       </c>
       <c r="D58">
-        <v>0.5883862884691136</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3850622650088186</v>
+      </c>
+      <c r="E58">
+        <v>-0.6149477736332755</v>
+      </c>
+      <c r="F58">
+        <v>0.4405987698484954</v>
+      </c>
+      <c r="G58">
+        <v>-0.443818713499584</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1236811916535699</v>
+        <v>-0.1390939147019986</v>
       </c>
       <c r="C59">
-        <v>-0.2030762566877398</v>
+        <v>-0.1916940355457556</v>
       </c>
       <c r="D59">
-        <v>0.02946452832219874</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03144168807588366</v>
+      </c>
+      <c r="E59">
+        <v>-0.03141993182987031</v>
+      </c>
+      <c r="F59">
+        <v>-0.03127988375113012</v>
+      </c>
+      <c r="G59">
+        <v>-0.009295561851333832</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3039756833598447</v>
+        <v>-0.2739684806752405</v>
       </c>
       <c r="C60">
-        <v>0.1100929620234782</v>
+        <v>0.105839085084357</v>
       </c>
       <c r="D60">
-        <v>0.176028396137525</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2484101486935423</v>
+      </c>
+      <c r="E60">
+        <v>0.2438706890259673</v>
+      </c>
+      <c r="F60">
+        <v>0.08950296993005133</v>
+      </c>
+      <c r="G60">
+        <v>0.04630253015060835</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04743120735099619</v>
+        <v>-0.04368110543094278</v>
       </c>
       <c r="C61">
-        <v>0.06010083282349282</v>
+        <v>0.05793016211350727</v>
       </c>
       <c r="D61">
-        <v>0.01510645548036497</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04350909623245706</v>
+      </c>
+      <c r="E61">
+        <v>-0.05095614410585585</v>
+      </c>
+      <c r="F61">
+        <v>-0.06010152847243121</v>
+      </c>
+      <c r="G61">
+        <v>0.07450294155333492</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01957309462625953</v>
+        <v>-0.01754076514469103</v>
       </c>
       <c r="C63">
-        <v>0.03223925365434143</v>
+        <v>0.03008140391740662</v>
       </c>
       <c r="D63">
-        <v>-0.02213812396662681</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0168900991467318</v>
+      </c>
+      <c r="E63">
+        <v>-0.063645809400484</v>
+      </c>
+      <c r="F63">
+        <v>-0.04068395018508554</v>
+      </c>
+      <c r="G63">
+        <v>0.07414053850108658</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05099909376391999</v>
+        <v>-0.05725515353115447</v>
       </c>
       <c r="C64">
-        <v>0.04765579325197844</v>
+        <v>0.05822070159389775</v>
       </c>
       <c r="D64">
-        <v>0.01490601801578136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.009051066587321663</v>
+      </c>
+      <c r="E64">
+        <v>-0.04535697823339715</v>
+      </c>
+      <c r="F64">
+        <v>-0.05600575532353025</v>
+      </c>
+      <c r="G64">
+        <v>0.05168150441781466</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07939315518209342</v>
+        <v>-0.06412623545855195</v>
       </c>
       <c r="C65">
-        <v>0.02589486950022948</v>
+        <v>0.02592633979230708</v>
       </c>
       <c r="D65">
-        <v>0.05998849192230556</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08784124394539702</v>
+      </c>
+      <c r="E65">
+        <v>-0.0573763643324116</v>
+      </c>
+      <c r="F65">
+        <v>-0.006889492333807359</v>
+      </c>
+      <c r="G65">
+        <v>0.02256565754502033</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06365687004774924</v>
+        <v>-0.05452490312633788</v>
       </c>
       <c r="C66">
-        <v>0.0849260651576049</v>
+        <v>0.08001307980664697</v>
       </c>
       <c r="D66">
-        <v>0.04095887170884705</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07744491141384981</v>
+      </c>
+      <c r="E66">
+        <v>-0.06050382640161651</v>
+      </c>
+      <c r="F66">
+        <v>-0.06789937493291431</v>
+      </c>
+      <c r="G66">
+        <v>0.07300512548917966</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05212798704549395</v>
+        <v>-0.04520151356505117</v>
       </c>
       <c r="C67">
-        <v>0.03147835932048595</v>
+        <v>0.02855214581721585</v>
       </c>
       <c r="D67">
-        <v>-0.02192139181855065</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.00524626062594185</v>
+      </c>
+      <c r="E67">
+        <v>-0.02675941173230903</v>
+      </c>
+      <c r="F67">
+        <v>-0.02829379317341494</v>
+      </c>
+      <c r="G67">
+        <v>0.0355963839618194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1225022003730891</v>
+        <v>-0.1464805344391531</v>
       </c>
       <c r="C68">
-        <v>-0.2821458126195707</v>
+        <v>-0.2454459041725127</v>
       </c>
       <c r="D68">
-        <v>-0.006327006739520177</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01370356959034626</v>
+      </c>
+      <c r="E68">
+        <v>-0.04115910097124224</v>
+      </c>
+      <c r="F68">
+        <v>-0.0119074023455992</v>
+      </c>
+      <c r="G68">
+        <v>0.02869962073582655</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09367169081618915</v>
+        <v>-0.08864329928069498</v>
       </c>
       <c r="C69">
-        <v>0.07097398600455267</v>
+        <v>0.089818597090669</v>
       </c>
       <c r="D69">
-        <v>-0.05163166822317294</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01472845946046652</v>
+      </c>
+      <c r="E69">
+        <v>-0.05787983859801739</v>
+      </c>
+      <c r="F69">
+        <v>-0.05779957307767516</v>
+      </c>
+      <c r="G69">
+        <v>0.07219796061252383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1137225625530749</v>
+        <v>-0.1407418086502879</v>
       </c>
       <c r="C71">
-        <v>-0.2594210918540155</v>
+        <v>-0.2442906730763452</v>
       </c>
       <c r="D71">
-        <v>0.01263398934292799</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.003429951099604293</v>
+      </c>
+      <c r="E71">
+        <v>-0.05546288524051661</v>
+      </c>
+      <c r="F71">
+        <v>-0.01474691088240905</v>
+      </c>
+      <c r="G71">
+        <v>0.06348062980756834</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0973471806866259</v>
+        <v>-0.1041987215135015</v>
       </c>
       <c r="C72">
-        <v>0.04404041329192834</v>
+        <v>0.04924467742175186</v>
       </c>
       <c r="D72">
-        <v>0.005975942879978813</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03706978850943722</v>
+      </c>
+      <c r="E72">
+        <v>-0.02011552328601986</v>
+      </c>
+      <c r="F72">
+        <v>-0.03469599666034526</v>
+      </c>
+      <c r="G72">
+        <v>0.09185851338131194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3914467425932277</v>
+        <v>-0.3310314960007389</v>
       </c>
       <c r="C73">
-        <v>0.05050697053295684</v>
+        <v>0.07013583154583972</v>
       </c>
       <c r="D73">
-        <v>0.4427566671561722</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5026903366510659</v>
+      </c>
+      <c r="E73">
+        <v>0.4627245564159196</v>
+      </c>
+      <c r="F73">
+        <v>0.2425196525217563</v>
+      </c>
+      <c r="G73">
+        <v>0.02648382792653784</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1088311779014226</v>
+        <v>-0.1130158837504386</v>
       </c>
       <c r="C74">
-        <v>0.0928635212048137</v>
+        <v>0.09220745661977983</v>
       </c>
       <c r="D74">
-        <v>-0.04699505845328492</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04697212888878038</v>
+      </c>
+      <c r="E74">
+        <v>-0.05829072071550002</v>
+      </c>
+      <c r="F74">
+        <v>0.006467118828558276</v>
+      </c>
+      <c r="G74">
+        <v>0.0469146161654637</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2577399154348529</v>
+        <v>-0.2613558582537649</v>
       </c>
       <c r="C75">
-        <v>0.08708368692218722</v>
+        <v>0.1207013535517661</v>
       </c>
       <c r="D75">
-        <v>-0.1393379390486452</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1522316692983063</v>
+      </c>
+      <c r="E75">
+        <v>-0.03101072922450685</v>
+      </c>
+      <c r="F75">
+        <v>0.05577709664931751</v>
+      </c>
+      <c r="G75">
+        <v>-0.05584232503747445</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1169432528748751</v>
+        <v>-0.13038700569517</v>
       </c>
       <c r="C76">
-        <v>0.07847101720064224</v>
+        <v>0.09033073178844378</v>
       </c>
       <c r="D76">
-        <v>-0.07537336487316305</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.08111892034300704</v>
+      </c>
+      <c r="E76">
+        <v>-0.07338815670638289</v>
+      </c>
+      <c r="F76">
+        <v>-0.01648606409386391</v>
+      </c>
+      <c r="G76">
+        <v>0.03245673736865255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08329787501537049</v>
+        <v>-0.06781523630093038</v>
       </c>
       <c r="C77">
-        <v>0.04338377384573883</v>
+        <v>0.05842580770849914</v>
       </c>
       <c r="D77">
-        <v>0.0553824519007269</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06059627134114654</v>
+      </c>
+      <c r="E77">
+        <v>-0.09643111702137429</v>
+      </c>
+      <c r="F77">
+        <v>-0.1757350891906369</v>
+      </c>
+      <c r="G77">
+        <v>-0.1075539236009629</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04955689369758332</v>
+        <v>-0.04777696829209078</v>
       </c>
       <c r="C78">
-        <v>0.04034596312304282</v>
+        <v>0.05176955849641837</v>
       </c>
       <c r="D78">
-        <v>0.03250273958639813</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06610470537561057</v>
+      </c>
+      <c r="E78">
+        <v>-0.06105132150453612</v>
+      </c>
+      <c r="F78">
+        <v>-0.06419832348040523</v>
+      </c>
+      <c r="G78">
+        <v>0.06050698080805952</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-5.312453409452839e-05</v>
+        <v>-0.03324091496976924</v>
       </c>
       <c r="C79">
-        <v>0.0005183110981502833</v>
+        <v>0.04712680349588409</v>
       </c>
       <c r="D79">
-        <v>0.001484385006567031</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.08227672464705191</v>
+      </c>
+      <c r="E79">
+        <v>-0.0672521498118711</v>
+      </c>
+      <c r="F79">
+        <v>0.02016687927556322</v>
+      </c>
+      <c r="G79">
+        <v>0.03100394633266193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.0392636457298725</v>
+        <v>-0.03014918642880944</v>
       </c>
       <c r="C80">
-        <v>0.04971056968980031</v>
+        <v>0.05053927612965631</v>
       </c>
       <c r="D80">
-        <v>0.02998333445768841</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04011344424458953</v>
+      </c>
+      <c r="E80">
+        <v>-0.01577372702695487</v>
+      </c>
+      <c r="F80">
+        <v>-0.05513703845423135</v>
+      </c>
+      <c r="G80">
+        <v>0.0008918235442201616</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1433635092680526</v>
+        <v>-0.1427924761168025</v>
       </c>
       <c r="C81">
-        <v>0.07122884666193686</v>
+        <v>0.09103177133667396</v>
       </c>
       <c r="D81">
-        <v>-0.1089687371965757</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.125135198977914</v>
+      </c>
+      <c r="E81">
+        <v>-0.07163924027771457</v>
+      </c>
+      <c r="F81">
+        <v>0.02568989935564273</v>
+      </c>
+      <c r="G81">
+        <v>-0.01417514110733069</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1924624548376361</v>
+        <v>-0.2267903625979464</v>
       </c>
       <c r="C82">
-        <v>0.08623485003880628</v>
+        <v>0.1502467289733313</v>
       </c>
       <c r="D82">
-        <v>-0.196097421799186</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.250777375069575</v>
+      </c>
+      <c r="E82">
+        <v>0.0338866916217103</v>
+      </c>
+      <c r="F82">
+        <v>-0.04340108509395201</v>
+      </c>
+      <c r="G82">
+        <v>0.05530691281775146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04182175288826959</v>
+        <v>-0.02800026363513177</v>
       </c>
       <c r="C83">
-        <v>0.03180209172435931</v>
+        <v>0.04458121217467278</v>
       </c>
       <c r="D83">
-        <v>0.03752566518774103</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03266047307248595</v>
+      </c>
+      <c r="E83">
+        <v>-0.02470002351110225</v>
+      </c>
+      <c r="F83">
+        <v>-0.03146416839734092</v>
+      </c>
+      <c r="G83">
+        <v>0.003539658677259647</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0002907871781673312</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0003124718074109381</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0003831445773771612</v>
+      </c>
+      <c r="E84">
+        <v>-0.002904163464676712</v>
+      </c>
+      <c r="F84">
+        <v>0.001362947750954933</v>
+      </c>
+      <c r="G84">
+        <v>0.001059278508946856</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.220263573124153</v>
+        <v>-0.2040057167981749</v>
       </c>
       <c r="C85">
-        <v>0.09116721023961104</v>
+        <v>0.1089407160739612</v>
       </c>
       <c r="D85">
-        <v>-0.1668101167006068</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1313297734704325</v>
+      </c>
+      <c r="E85">
+        <v>0.006290187130364258</v>
+      </c>
+      <c r="F85">
+        <v>0.1021464097268254</v>
+      </c>
+      <c r="G85">
+        <v>-0.0005416011450508828</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01014939184397169</v>
+        <v>-0.01300589275920989</v>
       </c>
       <c r="C86">
-        <v>0.028511975982612</v>
+        <v>0.01823908681119292</v>
       </c>
       <c r="D86">
-        <v>0.04477533472601222</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06580864495184391</v>
+      </c>
+      <c r="E86">
+        <v>-0.07849999772561611</v>
+      </c>
+      <c r="F86">
+        <v>-0.08453822814242398</v>
+      </c>
+      <c r="G86">
+        <v>0.0713347333313277</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02702237504223034</v>
+        <v>-0.02691126461121996</v>
       </c>
       <c r="C87">
-        <v>0.00569590202633302</v>
+        <v>0.01308513670111058</v>
       </c>
       <c r="D87">
-        <v>0.08816313894003433</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08812002787024685</v>
+      </c>
+      <c r="E87">
+        <v>-0.1269844212574137</v>
+      </c>
+      <c r="F87">
+        <v>-0.0788882365624662</v>
+      </c>
+      <c r="G87">
+        <v>0.001559320660812107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1102855803282371</v>
+        <v>-0.09410676300315007</v>
       </c>
       <c r="C88">
-        <v>0.07650900046720806</v>
+        <v>0.06355283232045829</v>
       </c>
       <c r="D88">
-        <v>-0.02403909531137402</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.009863733271221736</v>
+      </c>
+      <c r="E88">
+        <v>-0.05195415324059276</v>
+      </c>
+      <c r="F88">
+        <v>-0.04945752524797768</v>
+      </c>
+      <c r="G88">
+        <v>0.03553278579884577</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1764300708263958</v>
+        <v>-0.2129929188288703</v>
       </c>
       <c r="C89">
-        <v>-0.3827720373992433</v>
+        <v>-0.3850339494190415</v>
       </c>
       <c r="D89">
-        <v>-0.02356482097491945</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01184808772935344</v>
+      </c>
+      <c r="E89">
+        <v>-0.07018128936147908</v>
+      </c>
+      <c r="F89">
+        <v>-0.08929538771354618</v>
+      </c>
+      <c r="G89">
+        <v>-0.004257677533721853</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1700119374820055</v>
+        <v>-0.1940414800997984</v>
       </c>
       <c r="C90">
-        <v>-0.3352060730280139</v>
+        <v>-0.3128966375804341</v>
       </c>
       <c r="D90">
-        <v>-0.03718740185648026</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01899350218970088</v>
+      </c>
+      <c r="E90">
+        <v>-0.05725748146436636</v>
+      </c>
+      <c r="F90">
+        <v>-0.03107214899411633</v>
+      </c>
+      <c r="G90">
+        <v>0.01198921716010769</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1902211426459767</v>
+        <v>-0.1879287190938306</v>
       </c>
       <c r="C91">
-        <v>0.1221981452366965</v>
+        <v>0.1388516416122308</v>
       </c>
       <c r="D91">
-        <v>-0.1331347819166377</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1310590516087393</v>
+      </c>
+      <c r="E91">
+        <v>-0.05007940073760918</v>
+      </c>
+      <c r="F91">
+        <v>0.01472565388814049</v>
+      </c>
+      <c r="G91">
+        <v>-0.005947814331848955</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1589309328583276</v>
+        <v>-0.1784098642545171</v>
       </c>
       <c r="C92">
-        <v>-0.2948825139586491</v>
+        <v>-0.2977564705229577</v>
       </c>
       <c r="D92">
-        <v>-0.01557379448439401</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01299949588750552</v>
+      </c>
+      <c r="E92">
+        <v>-0.06019459299001968</v>
+      </c>
+      <c r="F92">
+        <v>-0.05995858192810859</v>
+      </c>
+      <c r="G92">
+        <v>0.02549946526521476</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1893021648370042</v>
+        <v>-0.2148720740318112</v>
       </c>
       <c r="C93">
-        <v>-0.3409211711311393</v>
+        <v>-0.3222411132206467</v>
       </c>
       <c r="D93">
-        <v>-0.03853321504300399</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01800067727964737</v>
+      </c>
+      <c r="E93">
+        <v>-0.03800984118841518</v>
+      </c>
+      <c r="F93">
+        <v>-0.005673499261871775</v>
+      </c>
+      <c r="G93">
+        <v>0.04067200753312584</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3436298717422228</v>
+        <v>-0.3453676986006148</v>
       </c>
       <c r="C94">
-        <v>0.1230579894954834</v>
+        <v>0.1707722646223203</v>
       </c>
       <c r="D94">
-        <v>-0.3749892271919561</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4040968881505945</v>
+      </c>
+      <c r="E94">
+        <v>-0.003639894638325734</v>
+      </c>
+      <c r="F94">
+        <v>0.1463015072501857</v>
+      </c>
+      <c r="G94">
+        <v>-0.3811491009972197</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1243653542061431</v>
+        <v>-0.09102474415950865</v>
       </c>
       <c r="C95">
-        <v>0.05495944808390594</v>
+        <v>0.05952700132593145</v>
       </c>
       <c r="D95">
-        <v>0.2177817342941046</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.2019472596995276</v>
+      </c>
+      <c r="E95">
+        <v>0.1289192554672028</v>
+      </c>
+      <c r="F95">
+        <v>-0.6824841202801519</v>
+      </c>
+      <c r="G95">
+        <v>-0.5996048640814569</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1934886739480317</v>
+        <v>-0.1871781239625153</v>
       </c>
       <c r="C98">
-        <v>0.03234958601697238</v>
+        <v>0.04975976413013394</v>
       </c>
       <c r="D98">
-        <v>0.1611701051687425</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2013002481688442</v>
+      </c>
+      <c r="E98">
+        <v>0.1438321975975205</v>
+      </c>
+      <c r="F98">
+        <v>0.08548780386726121</v>
+      </c>
+      <c r="G98">
+        <v>0.08263119135382396</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007937015868712947</v>
+        <v>-0.006791227665270835</v>
       </c>
       <c r="C101">
-        <v>0.03273794291237615</v>
+        <v>0.02839935278429459</v>
       </c>
       <c r="D101">
-        <v>-0.01298713345314649</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01848030661146231</v>
+      </c>
+      <c r="E101">
+        <v>-0.05202515696878168</v>
+      </c>
+      <c r="F101">
+        <v>-0.07459520034315098</v>
+      </c>
+      <c r="G101">
+        <v>0.08375008667441512</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.122628898973026</v>
+        <v>-0.1261982115332906</v>
       </c>
       <c r="C102">
-        <v>0.06645439515925328</v>
+        <v>0.09792412594487565</v>
       </c>
       <c r="D102">
-        <v>-0.04958380925400199</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05914869816298929</v>
+      </c>
+      <c r="E102">
+        <v>0.01196727914153271</v>
+      </c>
+      <c r="F102">
+        <v>-0.01975811565549769</v>
+      </c>
+      <c r="G102">
+        <v>-0.01233909204112939</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
